--- a/assets/Data Collections/Temples.xlsx
+++ b/assets/Data Collections/Temples.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TrekBuddy\assets\Data Collections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\TrekBuddy\assets\Data Collections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D303998-7ADA-4E79-9037-CB99B1524D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA19409-A390-410F-B898-3ED34CA3A0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16470" firstSheet="1" activeTab="2" xr2:uid="{37E7D56D-6777-4D1B-80CD-EA7A4F836EB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{37E7D56D-6777-4D1B-80CD-EA7A4F836EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="All Temples " sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hindu" sheetId="2" r:id="rId2"/>
-    <sheet name="Chirstian" sheetId="3" r:id="rId3"/>
+    <sheet name="Christian" sheetId="3" r:id="rId3"/>
     <sheet name="Muslim" sheetId="4" r:id="rId4"/>
     <sheet name="Jain" sheetId="5" r:id="rId5"/>
     <sheet name="Buddist" sheetId="6" r:id="rId6"/>
@@ -25,12 +25,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="227">
   <si>
     <t>Deity / Denomination</t>
   </si>
@@ -90,13 +99,634 @@
   </si>
   <si>
     <t xml:space="preserve">Image url </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details Description / History </t>
+  </si>
+  <si>
+    <t>Manakula Vinayagar Temple</t>
+  </si>
+  <si>
+    <t>Ganesha</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>Manakula Vinayagar Koil St, Puducherry</t>
+  </si>
+  <si>
+    <t>White Town</t>
+  </si>
+  <si>
+    <t>https://maps.google.com</t>
+  </si>
+  <si>
+    <t>5:30 AM – 12:30 PM, 4:00 PM – 9:00 PM</t>
+  </si>
+  <si>
+    <t>5:30 AM – 1:00 PM, 4:00 PM – 9:30 PM</t>
+  </si>
+  <si>
+    <t>Ancient Ganesha temple predating French rule</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Traditional</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Vinayaka Chaturthi</t>
+  </si>
+  <si>
+    <t>Varadaraja Perumal Temple</t>
+  </si>
+  <si>
+    <t>Vishnu</t>
+  </si>
+  <si>
+    <t>Mission St, Puducherry</t>
+  </si>
+  <si>
+    <t>Heritage Town</t>
+  </si>
+  <si>
+    <t>6:00 AM – 11:30 AM, 4:30 PM – 8:30 PM</t>
+  </si>
+  <si>
+    <t>6:00 AM – 12:00 PM, 4:30 PM – 9:00 PM</t>
+  </si>
+  <si>
+    <t>Historic Divya Desam temple</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Vaikunta Ekadasi</t>
+  </si>
+  <si>
+    <t>Vedapureeswarar Temple</t>
+  </si>
+  <si>
+    <t>Shiva</t>
+  </si>
+  <si>
+    <t>Needarajappaiyar St, Puducherry</t>
+  </si>
+  <si>
+    <t>6:00 AM – 12:00 PM, 4:00 PM – 8:30 PM</t>
+  </si>
+  <si>
+    <t>6:00 AM – 12:30 PM, 4:00 PM – 9:00 PM</t>
+  </si>
+  <si>
+    <t>Dedicated to Lord Shiva, ancient Saiva shrine</t>
+  </si>
+  <si>
+    <t>Mahashivaratri</t>
+  </si>
+  <si>
+    <t>Thirukaameeswarar Temple</t>
+  </si>
+  <si>
+    <t>Villiyanur, Puducherry</t>
+  </si>
+  <si>
+    <t>Villiyanur</t>
+  </si>
+  <si>
+    <t>6:00 AM – 12:00 PM, 4:00 PM – 8:00 PM</t>
+  </si>
+  <si>
+    <t>6:00 AM – 12:30 PM, 4:00 PM – 8:30 PM</t>
+  </si>
+  <si>
+    <t>Renowned temple for education-related prayers</t>
+  </si>
+  <si>
+    <t>Pradosham</t>
+  </si>
+  <si>
+    <t>Sengazhuneer Amman Temple</t>
+  </si>
+  <si>
+    <t>Amman</t>
+  </si>
+  <si>
+    <t>6:00 AM – 11:00 AM, 4:00 PM – 8:00 PM</t>
+  </si>
+  <si>
+    <t>6:00 AM – 12:00 PM, 4:00 PM – 9:00 PM</t>
+  </si>
+  <si>
+    <t>Popular local goddess temple</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Aadi Festival</t>
+  </si>
+  <si>
+    <t>Ayyanar Temple</t>
+  </si>
+  <si>
+    <t>Ayyanar</t>
+  </si>
+  <si>
+    <t>Lawspet, Puducherry</t>
+  </si>
+  <si>
+    <t>Lawspet</t>
+  </si>
+  <si>
+    <t>6:00 AM – 10:00 AM, 5:00 PM – 8:00 PM</t>
+  </si>
+  <si>
+    <t>6:00 AM – 11:00 AM, 5:00 PM – 8:30 PM</t>
+  </si>
+  <si>
+    <t>Village guardian deity temple</t>
+  </si>
+  <si>
+    <t>Kula Deivam Festival</t>
+  </si>
+  <si>
+    <t>Sri Kalyana Venkatesaperumal Temple</t>
+  </si>
+  <si>
+    <t>Ouppalam, Puducherry</t>
+  </si>
+  <si>
+    <t>Ouppalam</t>
+  </si>
+  <si>
+    <t>Known for marriage-related prayers</t>
+  </si>
+  <si>
+    <t>Brahmotsavam</t>
+  </si>
+  <si>
+    <t>Deity</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ofKW8az2r6zMxWiz9</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/pUgDUDBc5gCCDEHP6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/6ZWoyceFhqurZ2mF7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/iFz3L1YTMEkS3jbE7</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/ZHj7bQN4HpuM1oeB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veerampattinam, Puducherry </t>
+  </si>
+  <si>
+    <t>Veerampattinam</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Pi4jNnD2e96nbYGBA</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/2W1iPNrrJ5PrNPys9</t>
+  </si>
+  <si>
+    <t>Thennampakkam, Puducherry</t>
+  </si>
+  <si>
+    <t>Thennampakkam</t>
+  </si>
+  <si>
+    <t>https://share.google/ZdOhFOmfVTCZ4j1eH</t>
+  </si>
+  <si>
+    <t>https://share.google/O8ID9VsYSM6HZfCVS</t>
+  </si>
+  <si>
+    <t>https://share.google/images/vgDtXu2KJZc1TgNvK</t>
+  </si>
+  <si>
+    <t>https://share.google/KkHt5YhxZTd6Ttpo5</t>
+  </si>
+  <si>
+    <t>https://share.google/sbiEqq3VRNtetnQ6n</t>
+  </si>
+  <si>
+    <t>https://share.google/I5sYs9v330GUCRX93</t>
+  </si>
+  <si>
+    <t>https://share.google/rrw7UIty0501Lfap6</t>
+  </si>
+  <si>
+    <t>Basilica of the Sacred Heart of Jesus</t>
+  </si>
+  <si>
+    <t>Roman Catholic</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Basilica</t>
+  </si>
+  <si>
+    <t>South Blvd, Puducherry</t>
+  </si>
+  <si>
+    <t>Railway Station Area</t>
+  </si>
+  <si>
+    <t>6:00 AM – 7:00 PM</t>
+  </si>
+  <si>
+    <t>6:00 AM – 8:00 PM</t>
+  </si>
+  <si>
+    <t>Gothic-style landmark basilica</t>
+  </si>
+  <si>
+    <t>Modest</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>Immaculate Conception Cathedral</t>
+  </si>
+  <si>
+    <t>Cathedral</t>
+  </si>
+  <si>
+    <t>6:00 AM – 6:30 PM</t>
+  </si>
+  <si>
+    <t>Known as Samba Kovil</t>
+  </si>
+  <si>
+    <t>Feast of Immaculate Conception</t>
+  </si>
+  <si>
+    <t>Our Lady of Angels Church</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>White Town, Puducherry</t>
+  </si>
+  <si>
+    <t>6:30 AM – 6:30 PM</t>
+  </si>
+  <si>
+    <t>6:30 AM – 7:00 PM</t>
+  </si>
+  <si>
+    <t>French colonial era church</t>
+  </si>
+  <si>
+    <t>Assumption Feast</t>
+  </si>
+  <si>
+    <t>St. Andrew’s Church</t>
+  </si>
+  <si>
+    <t>Protestant</t>
+  </si>
+  <si>
+    <t>Church St, Puducherry</t>
+  </si>
+  <si>
+    <t>6:00 AM – 6:00 PM</t>
+  </si>
+  <si>
+    <t>Old Presbyterian church</t>
+  </si>
+  <si>
+    <t>Infant Jesus Church</t>
+  </si>
+  <si>
+    <t>Mudaliarpet, Puducherry</t>
+  </si>
+  <si>
+    <t>Mudaliarpet</t>
+  </si>
+  <si>
+    <t>6:00 AM – 7:30 PM</t>
+  </si>
+  <si>
+    <t>Popular local parish</t>
+  </si>
+  <si>
+    <t>Infant Jesus Feast</t>
+  </si>
+  <si>
+    <t>Our Lady of Lourdes Grotto</t>
+  </si>
+  <si>
+    <t>Chapel</t>
+  </si>
+  <si>
+    <t>Pilgrimage grotto shrine</t>
+  </si>
+  <si>
+    <t>Lourdes Feast</t>
+  </si>
+  <si>
+    <t>Ariyankuppam, Puducherry</t>
+  </si>
+  <si>
+    <t>Ariyankuppam</t>
+  </si>
+  <si>
+    <t>https://share.google/4cZF5uunWlui6pwxE</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/t9zAHvK7u6ykm4vJ7</t>
+  </si>
+  <si>
+    <t>https://share.google/bfssUZlvE5NahlXCi</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/i4ygHvYgV2mm7oZ39</t>
+  </si>
+  <si>
+    <t>https://share.google/mENDtiu6W49FcLkYq</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/16yxHLDjgLEVW7Fp9</t>
+  </si>
+  <si>
+    <t>https://share.google/owx6cfm4inCTITmhK</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/5eSNGFGqnUzN4TLn8</t>
+  </si>
+  <si>
+    <t>https://share.google/Yj64MGiF7z9QMom9g</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/gYPBck33Q9aiMA4Q9</t>
+  </si>
+  <si>
+    <t>https://share.google/7mdfY9mEouXDmQeJP</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/AEXsBCEefyotxKtY6</t>
+  </si>
+  <si>
+    <t>Sunni</t>
+  </si>
+  <si>
+    <t>Muslim</t>
+  </si>
+  <si>
+    <t>Mosque</t>
+  </si>
+  <si>
+    <t>Ramzan</t>
+  </si>
+  <si>
+    <t>Muthialpet, Puducherry</t>
+  </si>
+  <si>
+    <t>Muthialpet</t>
+  </si>
+  <si>
+    <t>5:00 AM – 9:00 PM</t>
+  </si>
+  <si>
+    <t>5:00 AM – 10:00 PM</t>
+  </si>
+  <si>
+    <t>Bakrid</t>
+  </si>
+  <si>
+    <t>Villiyanur Mosque</t>
+  </si>
+  <si>
+    <t>Village mosque</t>
+  </si>
+  <si>
+    <t>Ariyankuppam Mosque</t>
+  </si>
+  <si>
+    <t>Coastal area mosque</t>
+  </si>
+  <si>
+    <t>Reddiarpalayam Mosque</t>
+  </si>
+  <si>
+    <t>Reddiarpalayam, Puducherry</t>
+  </si>
+  <si>
+    <t>Reddiarpalayam</t>
+  </si>
+  <si>
+    <t>Urban mosque</t>
+  </si>
+  <si>
+    <t>Mudaliarpet Mosque</t>
+  </si>
+  <si>
+    <t>Community mosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosque Name </t>
+  </si>
+  <si>
+    <t>https://share.google/6IZJaSkWWheP4targ</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/6pHDAETR9xfYx8TW7</t>
+  </si>
+  <si>
+    <t>https://share.google/pC5oDW1N68TkpDX1r</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/BkAkV4hmboDyuyh2A</t>
+  </si>
+  <si>
+    <t>https://share.google/m2hLusX8rywtG4yjE</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/fG47Rq1RKSHHRABX8</t>
+  </si>
+  <si>
+    <t>https://share.google/2OtdIMNlokHA2bClN</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/VfkjzfZXfMesp18WA</t>
+  </si>
+  <si>
+    <t>Puducherry Jain Temple</t>
+  </si>
+  <si>
+    <t>Svetambara</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>6:00 AM – 11:00 AM, 5:00 PM – 8:00 PM</t>
+  </si>
+  <si>
+    <t>6:00 AM – 12:00 PM, 5:00 PM – 8:30 PM</t>
+  </si>
+  <si>
+    <t>Main Jain temple serving local community</t>
+  </si>
+  <si>
+    <t>White Clothing</t>
+  </si>
+  <si>
+    <t>Mahavir Jayanti</t>
+  </si>
+  <si>
+    <t>Mahavir Swami Jain Temple</t>
+  </si>
+  <si>
+    <t>6:00 AM – 10:30 AM, 5:30 PM – 8:00 PM</t>
+  </si>
+  <si>
+    <t>6:00 AM – 11:30 AM, 5:30 PM – 8:30 PM</t>
+  </si>
+  <si>
+    <t>Dedicated to Lord Mahavir</t>
+  </si>
+  <si>
+    <t>Digambar Jain Temple</t>
+  </si>
+  <si>
+    <t>Digambara</t>
+  </si>
+  <si>
+    <t>Digambara tradition temple</t>
+  </si>
+  <si>
+    <t>Paryushan</t>
+  </si>
+  <si>
+    <t>Theravada</t>
+  </si>
+  <si>
+    <t>Buddhist</t>
+  </si>
+  <si>
+    <t>Meditation Centre</t>
+  </si>
+  <si>
+    <t>6:00 AM – 9:00 PM</t>
+  </si>
+  <si>
+    <t>Meditation and Dhamma talks</t>
+  </si>
+  <si>
+    <t>Buddha Purnima</t>
+  </si>
+  <si>
+    <t>Zen</t>
+  </si>
+  <si>
+    <t>Zen meditation practice centre</t>
+  </si>
+  <si>
+    <t>Vesak</t>
+  </si>
+  <si>
+    <t>Vipassana Centre</t>
+  </si>
+  <si>
+    <t>5:00 AM – 9:30 PM</t>
+  </si>
+  <si>
+    <t>Vipassana meditation courses</t>
+  </si>
+  <si>
+    <t>Peace Pagoda Centre</t>
+  </si>
+  <si>
+    <t>Mahayana</t>
+  </si>
+  <si>
+    <t>Peace and mindfulness centre</t>
+  </si>
+  <si>
+    <t>Mindfulness Centre</t>
+  </si>
+  <si>
+    <t>Lay meditation centre</t>
+  </si>
+  <si>
+    <t>Dhamma Study Circle</t>
+  </si>
+  <si>
+    <t>Study and practice of Dhamma</t>
+  </si>
+  <si>
+    <t>Asalha Puja</t>
+  </si>
+  <si>
+    <t>Lotus Meditation Hall</t>
+  </si>
+  <si>
+    <t>Urban meditation hall</t>
+  </si>
+  <si>
+    <t>https://share.google/bQ7HL73dpNoS4tQYz</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/QonVZudz4FjEX5HY7</t>
+  </si>
+  <si>
+    <t>https://share.google/E17Xhla1VM0bJHzqr</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/PjeZ81DsPQFkxhEe6</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/nYY3uWmQQKabcUPe8</t>
+  </si>
+  <si>
+    <t>https://share.google/99Y14h8IOZ8dRfUy2</t>
+  </si>
+  <si>
+    <t>https://share.google/crNyLZf7YLqp8H7aw</t>
+  </si>
+  <si>
+    <t>Gnanalayam</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/Cjng8S3RCHhh1QuRA</t>
+  </si>
+  <si>
+    <t>Matri Buddha Vihara</t>
+  </si>
+  <si>
+    <t>Bommayapalayam, Puducherry</t>
+  </si>
+  <si>
+    <t>Bommayapalayam</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/FuH88BWrvVQYtgDx7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +749,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,10 +782,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -159,8 +805,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,25 +1133,25 @@
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" customWidth="1"/>
+    <col min="9" max="9" width="41.109375" customWidth="1"/>
     <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1"/>
     <col min="15" max="15" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -551,33 +1205,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05854028-A672-4E86-BB5E-B1386358477E}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="55.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" customWidth="1"/>
+    <col min="4" max="4" width="52.88671875" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="47.5546875" customWidth="1"/>
+    <col min="9" max="9" width="43.44140625" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="29.5546875" customWidth="1"/>
+    <col min="15" max="15" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -606,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
@@ -614,53 +1267,391 @@
       <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{39028479-EB8A-41AE-88AB-85257EF0AA0D}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{72F38D05-F094-4D1F-A4B6-C0B6A9253326}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{389F713B-B02B-4489-ADDC-E3D530B51ED7}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{0F3D9C62-CDA0-46DA-B4C5-068F683F97BA}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{78EF1292-D88E-4152-AFE6-63B33679C9B3}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{16347678-0A2D-470A-9547-C5C539BF7F51}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{D9444421-2F9E-4BE9-B789-0E392B94DA9B}"/>
+    <hyperlink ref="O3" r:id="rId8" xr:uid="{6ED1A938-D29B-45EB-B0C6-7CE1FF8670BA}"/>
+    <hyperlink ref="O2" r:id="rId9" xr:uid="{63048FE0-AE4E-4439-858A-E34ED87AF0CF}"/>
+    <hyperlink ref="O4" r:id="rId10" xr:uid="{29AF5795-E51A-4CD3-B46A-EA20258EC9B0}"/>
+    <hyperlink ref="O5:O8" r:id="rId11" display="https://share.google/KkHt5YhxZTd6Ttpo5" xr:uid="{7CA92871-A796-4B85-9E04-08ABAD3284CA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F8F495-046F-40CA-9359-31D115372C31}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="50.85546875" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" customWidth="1"/>
-    <col min="8" max="8" width="54" customWidth="1"/>
-    <col min="9" max="9" width="53.5703125" customWidth="1"/>
-    <col min="10" max="10" width="51.140625" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="32.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="47.85546875" customWidth="1"/>
-    <col min="16" max="16" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="49.77734375" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="60" customWidth="1"/>
+    <col min="8" max="8" width="41.77734375" customWidth="1"/>
+    <col min="9" max="9" width="43.77734375" customWidth="1"/>
+    <col min="10" max="10" width="31.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="34.5546875" customWidth="1"/>
+    <col min="15" max="15" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -689,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
@@ -697,55 +1688,342 @@
       <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{9DB8A9D4-24D0-4FC4-9322-5E3B6DB2F431}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{03DC2D7E-F5C9-4429-B55D-86B3356164F6}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{AF4C4EA1-6622-401C-AD70-DB0E53D09817}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{D3694760-4EC0-4FC3-AB54-AE7C639B3724}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{1BDCEFD4-481E-4FE6-8C21-C18714447048}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{80BA8B26-3B16-483A-875F-4BEF45E9F4AD}"/>
+    <hyperlink ref="O2:O7" r:id="rId7" display="https://share.google/4cZF5uunWlui6pwxE" xr:uid="{0906355E-1DEE-462E-BAC8-9240CE6C1F2D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA132028-DD2E-4793-9B9C-EC43EBDC06C2}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="44.140625" customWidth="1"/>
-    <col min="9" max="9" width="51.85546875" customWidth="1"/>
-    <col min="10" max="10" width="36.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" customWidth="1"/>
-    <col min="14" max="14" width="26.85546875" customWidth="1"/>
-    <col min="15" max="15" width="31.5703125" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="9" max="9" width="44.21875" customWidth="1"/>
+    <col min="10" max="10" width="32" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="14" max="14" width="31.5546875" customWidth="1"/>
+    <col min="15" max="15" width="37.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -772,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -781,52 +2059,243 @@
         <v>14</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{6E6F559A-D251-4ABB-959D-43BE3C78FDB5}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{39761D8E-7B3C-4CDB-8FB7-83A1E66D058D}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{A22BA626-EC09-4A47-9260-DC6910E70778}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{92951D15-4A04-4803-987D-09123A5A07D9}"/>
+    <hyperlink ref="O2:O5" r:id="rId5" display="https://share.google/6IZJaSkWWheP4targ" xr:uid="{9ABB6184-AFA7-4969-A58E-958DE42C67F5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6A1F60-F71E-4E35-AE5B-107261D21762}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" customWidth="1"/>
-    <col min="6" max="6" width="49.5703125" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" customWidth="1"/>
-    <col min="8" max="8" width="49" customWidth="1"/>
-    <col min="9" max="9" width="69" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" customWidth="1"/>
-    <col min="12" max="12" width="41.5703125" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="37.85546875" customWidth="1"/>
-    <col min="15" max="15" width="36.140625" customWidth="1"/>
-    <col min="16" max="16" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="54.5546875" customWidth="1"/>
+    <col min="8" max="8" width="42.77734375" customWidth="1"/>
+    <col min="9" max="9" width="44.21875" customWidth="1"/>
+    <col min="10" max="10" width="37.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="32.33203125" customWidth="1"/>
+    <col min="15" max="15" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -855,7 +2324,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>9</v>
@@ -863,53 +2332,196 @@
       <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>182</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" t="s">
+        <v>191</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{5974FFF7-0A93-44ED-98B0-A9F9E7AA3A15}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{4F481C7C-D606-49EB-BF20-C6D1AFBC89A4}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{EBF8C474-8E64-4B7B-8C03-D0000DE97879}"/>
+    <hyperlink ref="O2:O4" r:id="rId4" display="https://share.google/bQ7HL73dpNoS4tQYz" xr:uid="{3350D8D4-242F-4B7B-BFF1-DDEFB0BDEB8D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590857C9-0EBD-48B3-9D6F-245F8768A339}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
-    <col min="9" max="9" width="38.42578125" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="40.109375" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" customWidth="1"/>
+    <col min="9" max="9" width="38.44140625" customWidth="1"/>
+    <col min="10" max="10" width="32.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="29.6640625" customWidth="1"/>
+    <col min="15" max="15" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -938,7 +2550,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -947,19 +2559,332 @@
         <v>14</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{BC42D192-DCBD-49BF-8EE8-D669FE415687}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{328176B8-3033-4509-AFCF-AE9C044E8E12}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{38457364-0FBB-4904-8B0A-F0A9CCE7B9CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>